--- a/data.xlsx
+++ b/data.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="32914" windowHeight="14803" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="32914" windowHeight="14803"/>
   </bookViews>
   <sheets>
     <sheet name="1" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="234">
   <si>
     <t>mediaID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -47,18 +47,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>2020샘플샘플샘플샘플샘플</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>2020samplesamplesamplesamplesample</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>2010샘플샘플샘플샘플샘플</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>2010samplesamplesamplesamplesample</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -358,9 +350,6 @@
     <t>19991101</t>
   </si>
   <si>
-    <t>20010101</t>
-  </si>
-  <si>
     <t>20010401</t>
   </si>
   <si>
@@ -451,21 +440,12 @@
     <t>용인 민자 하수처리 사업 수주</t>
   </si>
   <si>
-    <t>APPC PDH/PP 프로젝트 수주</t>
-  </si>
-  <si>
     <t>Saudi Aramco DHT 프로젝트 수주</t>
   </si>
   <si>
     <t>UAE BOROUGE-2 OCU 수주</t>
   </si>
   <si>
-    <t>Ma’aden Amonia 수주</t>
-  </si>
-  <si>
-    <t>태국 PTT ESP, GSP-6 수주</t>
-  </si>
-  <si>
     <t>UAE ICAD  폐수처리 프로젝트 수주</t>
   </si>
   <si>
@@ -484,12 +464,6 @@
     <t>UAE BOROUGE-2 OCU order</t>
   </si>
   <si>
-    <t>Ma'aden Amonia order</t>
-  </si>
-  <si>
-    <t>Thailand's PTT ESP wins GSP-6 orders</t>
-  </si>
-  <si>
     <t>UAE ICAD Wastewater Treatment Project Order</t>
   </si>
   <si>
@@ -502,35 +476,11 @@
     <t>orders exceed 10 trillion won</t>
   </si>
   <si>
-    <t>SHARQ EG 프로젝트 수주</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TASNEE Ethylene 프로젝트 수주 100만톤</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1 million tons of orders for the TASNE Ethylene project.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Order for MEXICO Minatitlan Package 6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>MEXICO Minatitlan Package6 수주</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>20051001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>APPC PDH/PP project order</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Order for SHARQ EG project</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -565,18 +515,380 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>글로벌 오퍼레이션 본격 추진
+(인도, 미국, 사우디 법인 설립)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20010101</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Saudi Arabia APPC PDH/PP 프로젝트 수주</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>contentEng</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>2002 Korea-Japan World Cup
 Main Stadium Completed</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>글로벌 오퍼레이션 본격 추진
-(인도, 미국, 사우디 법인 설립)</t>
+    <t>Saudi Arabia APPC PDH/PP Project Order</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Order for MEXICO Minatitlan Package 6</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Full-scale promotion of global operations
 (establishment of Indian, US, and Saudi subsidiaries)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Saudi Arabia SHARQ EG 프로젝트 수주</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Saudi Arabia Order for SHARQ EG project</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Saudi Arabia TASNEE Ethylene 프로젝트 수주 100만톤</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Saudi Arabia 1 million tons of orders for the TASNE Ethylene project.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Saudi Arabia Ma’aden Amonia 수주</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Saudi Arabia Ma'aden Amonia order</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Thailand's PTT ESP wins GSP-6 orders</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Thailand PTT ESP, GSP-6 수주</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20100505</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20100605</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20100705</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20110505</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20120505</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20130505</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20110505</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20100405</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20110405</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20120805</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20120605</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20140505</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20150505</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20150506</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20160505</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20160506</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20160507</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20170505</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20170506</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20170507</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20170508</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20180510</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20180520</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20190540</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20190550</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20190650</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20200501</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20200502</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20200503</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20200504</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20210501</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20210502</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20210503</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20210505</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20210506</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20210507</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20220505</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2020년 멕시코 PEMEX Dos Bocas Refinery 프로젝트 수주
+(창사이래 최대 규모 4.5조원)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2021 Saudi Arabia APOC PDH &amp; UTOS  프로젝트 수주</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2021 Aramco Jafurah GPF 프로젝트 수주</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">2021 S-ARMS VR 품질관리 시스템 구축  </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2022 Russia BGCC Ethane Cracker 프로젝트 수주</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>contentKor</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2020년 창립 50 주년</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">2020 Engineering Data Platform 구축 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2020 여수 롯데케미칼 에너지합리화 수주</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2021 지역난방공사 수소 액화기술 국산화 연구 수주</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">2021 삼성에지니어링 - Baker Hughes MOU 체결
+(CCUS &amp; 수소 이용 분야  협력) </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">2021 S-AWP 시스템 구축  </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2010 삼성디스플레이 A2ㆍA3 프로젝트 1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2015 삼성전자 평택 반도체 프로젝트 수주
+(초순수, 폐수, 정수, 배기, 154kv)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2015 美 Lotte Chemical LA MEG 프로젝트수주
+(Off-Sit Module 본격 적용)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2016 헝가리 삼성SDI 자동차배터리 프로젝트 수주</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2016 체코 넥센타이어 프로젝트 수주</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2017 Samsung Electronics China Xian X2 Utility 프로젝트 수주</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2017 삼성전자 화성 반도체 E 프로젝트 수주 (초순수, 폐수, 배기)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2017 S&amp;P Global Platts Awards CSR 부문 수상</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2017 태국 GC Oxirane PO 프로젝트 수주</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018 태국 PTTGC PO/ORP 프로젝트 수주</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018 태국 Thai Oil CF 프로젝트 수주</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018 UAE ADNOC Refining Crude Flexibility 프로젝트 수주</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019 헝가리 Volta 전지박 프로젝트 수주 (Phase 1, Phase2)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019 Saudi Aramco HUGRS 프로젝트 수주</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019 MEED지 선정 Top EPC contractor Oil &amp; Gas 분문 3위</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>contentKor</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2010 업계 최고 기업 신용등급 AA- 취득</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2010 미국 시장 첫 진출 
+Dow Falcon 프로젝트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2011 Saudi Arabia Shaybah NGL Program 수주</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2012 UAE ADNOC Refining 
+Carbon Black &amp; Delayed Coker(CBDC) 프로젝트 수주</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2013 베트남 삼성전기 SEMV 프로젝트 수주</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2011 삼성바이오로직스 EDISONⅡ 프로젝트 수주</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2010 Hungary 한국타이어 No.2 프로젝트 수주</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2011 DJSI 코리아 지수 편입</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2012 GEC 신사옥 입주</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2012 동아제약 DM Bio 프로젝트 완공</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">2014 GEC 신사옥 입주 </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -584,7 +896,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -599,26 +911,6 @@
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="6"/>
-      <color rgb="FF424242"/>
-      <name val="맑은 고딕"/>
-      <family val="3"/>
-      <charset val="129"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <color rgb="FF000000"/>
-      <name val="Helvetica"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="13"/>
-      <color rgb="FF000000"/>
-      <name val="Helvetica"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -643,7 +935,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -651,21 +943,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -950,8 +1227,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.600000000000001" x14ac:dyDescent="0.55000000000000004"/>
@@ -981,13 +1258,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>150</v>
+        <v>136</v>
       </c>
       <c r="D2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -995,13 +1272,13 @@
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -1009,13 +1286,13 @@
         <v>1</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C4" t="s">
-        <v>149</v>
+        <v>135</v>
       </c>
       <c r="D4" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -1023,13 +1300,13 @@
         <v>1</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C5" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D5" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -1037,13 +1314,13 @@
         <v>1</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>151</v>
+        <v>137</v>
       </c>
       <c r="D6" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -1051,13 +1328,13 @@
         <v>1</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D7" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -1065,13 +1342,13 @@
         <v>1</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -1079,13 +1356,13 @@
         <v>1</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C9" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D9" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -1093,13 +1370,13 @@
         <v>1</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D10" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -1107,13 +1384,13 @@
         <v>1</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D11" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>
@@ -1128,7 +1405,7 @@
   <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.600000000000001" x14ac:dyDescent="0.55000000000000004"/>
@@ -1158,13 +1435,13 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -1172,13 +1449,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -1186,13 +1463,13 @@
         <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C4" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D4" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -1200,13 +1477,13 @@
         <v>2</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C5" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D5" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -1214,13 +1491,13 @@
         <v>2</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C6" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D6" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -1228,13 +1505,13 @@
         <v>2</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C7" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D7" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -1242,13 +1519,13 @@
         <v>2</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C8" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D8" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -1256,13 +1533,13 @@
         <v>2</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C9" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D9" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -1270,13 +1547,13 @@
         <v>2</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C10" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D10" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -1284,13 +1561,13 @@
         <v>2</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C11" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D11" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
   </sheetData>
@@ -1340,13 +1617,13 @@
         <v>3</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.55000000000000004">
@@ -1357,13 +1634,13 @@
         <v>3</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D3" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E3" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.55000000000000004">
@@ -1374,13 +1651,13 @@
         <v>3</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D4" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E4" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="35.15" x14ac:dyDescent="0.55000000000000004">
@@ -1391,13 +1668,13 @@
         <v>3</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>153</v>
+        <v>139</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>154</v>
+        <v>140</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.55000000000000004">
@@ -1408,13 +1685,13 @@
         <v>3</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D6" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E6" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.55000000000000004">
@@ -1425,13 +1702,13 @@
         <v>3</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>152</v>
+        <v>138</v>
       </c>
       <c r="E7" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.55000000000000004">
@@ -1442,13 +1719,13 @@
         <v>3</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D8" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E8" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.55000000000000004">
@@ -1459,13 +1736,13 @@
         <v>3</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D9" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E9" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.55000000000000004">
@@ -1476,13 +1753,13 @@
         <v>3</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D10" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E10" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.55000000000000004">
@@ -1493,13 +1770,13 @@
         <v>3</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D11" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="E11" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
   </sheetData>
@@ -1512,16 +1789,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.600000000000001" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
     <col min="1" max="1" width="18.7109375" customWidth="1"/>
     <col min="2" max="2" width="16.640625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="56.640625" customWidth="1"/>
-    <col min="4" max="4" width="71.35546875" customWidth="1"/>
+    <col min="3" max="4" width="56.640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -1529,13 +1805,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C1" t="s">
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>3</v>
+        <v>145</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -1543,13 +1819,13 @@
         <v>4</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>93</v>
+        <v>143</v>
       </c>
       <c r="C2" t="s">
-        <v>118</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>112</v>
+        <v>115</v>
+      </c>
+      <c r="D2" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -1557,13 +1833,13 @@
         <v>4</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="C3" t="s">
-        <v>119</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>113</v>
+        <v>116</v>
+      </c>
+      <c r="D3" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -1571,13 +1847,13 @@
         <v>4</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="C4" t="s">
-        <v>120</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>114</v>
+        <v>117</v>
+      </c>
+      <c r="D4" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -1585,13 +1861,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="C5" t="s">
-        <v>121</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>115</v>
+        <v>118</v>
+      </c>
+      <c r="D5" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="35.15" x14ac:dyDescent="0.55000000000000004">
@@ -1599,13 +1875,13 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>156</v>
+        <v>141</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -1613,13 +1889,13 @@
         <v>4</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="C7" t="s">
-        <v>122</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>116</v>
+        <v>119</v>
+      </c>
+      <c r="D7" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -1627,13 +1903,13 @@
         <v>4</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="C8" t="s">
-        <v>123</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>117</v>
+        <v>120</v>
+      </c>
+      <c r="D8" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -1641,12 +1917,12 @@
         <v>4</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="C9" t="s">
-        <v>124</v>
-      </c>
-      <c r="D9" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="D9" t="s">
         <v>147</v>
       </c>
     </row>
@@ -1655,13 +1931,13 @@
         <v>4</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="C10" t="s">
-        <v>141</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>148</v>
+        <v>150</v>
+      </c>
+      <c r="D10" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -1669,13 +1945,13 @@
         <v>4</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="C11" t="s">
-        <v>142</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>143</v>
+        <v>152</v>
+      </c>
+      <c r="D11" t="s">
+        <v>153</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -1683,13 +1959,13 @@
         <v>4</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>146</v>
+        <v>134</v>
       </c>
       <c r="C12" t="s">
-        <v>145</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>144</v>
+        <v>133</v>
+      </c>
+      <c r="D12" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="35.15" x14ac:dyDescent="0.55000000000000004">
@@ -1697,13 +1973,13 @@
         <v>4</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="D13" s="7" t="s">
-        <v>158</v>
+        <v>142</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -1711,13 +1987,13 @@
         <v>4</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="C14" t="s">
-        <v>125</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>133</v>
+        <v>121</v>
+      </c>
+      <c r="D14" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -1725,13 +2001,13 @@
         <v>4</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="C15" t="s">
-        <v>126</v>
-      </c>
-      <c r="D15" s="4" t="s">
-        <v>134</v>
+        <v>122</v>
+      </c>
+      <c r="D15" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -1739,13 +2015,13 @@
         <v>4</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C16" t="s">
-        <v>127</v>
-      </c>
-      <c r="D16" s="4" t="s">
-        <v>135</v>
+        <v>154</v>
+      </c>
+      <c r="D16" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -1753,13 +2029,13 @@
         <v>4</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="C17" t="s">
-        <v>128</v>
-      </c>
-      <c r="D17" s="4" t="s">
-        <v>136</v>
+        <v>157</v>
+      </c>
+      <c r="D17" t="s">
+        <v>156</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -1767,13 +2043,13 @@
         <v>4</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="C18" t="s">
+        <v>123</v>
+      </c>
+      <c r="D18" t="s">
         <v>129</v>
-      </c>
-      <c r="D18" s="4" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -1781,13 +2057,13 @@
         <v>4</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="C19" t="s">
+        <v>124</v>
+      </c>
+      <c r="D19" t="s">
         <v>130</v>
-      </c>
-      <c r="D19" s="4" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -1795,13 +2071,13 @@
         <v>4</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="C20" t="s">
+        <v>125</v>
+      </c>
+      <c r="D20" t="s">
         <v>131</v>
-      </c>
-      <c r="D20" s="4" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -1809,13 +2085,13 @@
         <v>4</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="C21" t="s">
+        <v>126</v>
+      </c>
+      <c r="D21" t="s">
         <v>132</v>
-      </c>
-      <c r="D21" s="4" t="s">
-        <v>140</v>
       </c>
     </row>
   </sheetData>
@@ -1827,16 +2103,17 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D13"/>
+  <dimension ref="A1:D27"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C34" sqref="C34"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.600000000000001" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
     <col min="1" max="1" width="18.7109375" customWidth="1"/>
     <col min="2" max="2" width="16.640625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="56.640625" customWidth="1"/>
-    <col min="4" max="4" width="71.35546875" customWidth="1"/>
+    <col min="3" max="4" width="71.35546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -1847,7 +2124,7 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>2</v>
+        <v>222</v>
       </c>
       <c r="D1" t="s">
         <v>3</v>
@@ -1857,168 +2134,322 @@
       <c r="A2">
         <v>5</v>
       </c>
-      <c r="B2" s="1">
-        <v>201001</v>
+      <c r="B2" s="1" t="s">
+        <v>158</v>
       </c>
       <c r="C2" t="s">
-        <v>6</v>
+        <v>223</v>
       </c>
       <c r="D2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A3">
         <v>5</v>
       </c>
-      <c r="B3" s="1">
-        <v>201002</v>
+      <c r="B3" s="1" t="s">
+        <v>159</v>
       </c>
       <c r="C3" t="s">
-        <v>6</v>
+        <v>224</v>
       </c>
       <c r="D3" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A4">
         <v>5</v>
       </c>
-      <c r="B4" s="1">
-        <v>201003</v>
+      <c r="B4" s="1" t="s">
+        <v>160</v>
       </c>
       <c r="C4" t="s">
-        <v>6</v>
+        <v>207</v>
       </c>
       <c r="D4" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A5">
         <v>5</v>
       </c>
-      <c r="B5" s="1">
-        <v>201004</v>
+      <c r="B5" s="1" t="s">
+        <v>161</v>
       </c>
       <c r="C5" t="s">
-        <v>6</v>
+        <v>225</v>
       </c>
       <c r="D5" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A6">
         <v>5</v>
       </c>
-      <c r="B6" s="1">
-        <v>201005</v>
+      <c r="B6" s="1" t="s">
+        <v>162</v>
       </c>
       <c r="C6" t="s">
-        <v>6</v>
+        <v>226</v>
       </c>
       <c r="D6" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A7">
         <v>5</v>
       </c>
-      <c r="B7" s="1">
-        <v>201006</v>
+      <c r="B7" s="1" t="s">
+        <v>163</v>
       </c>
       <c r="C7" t="s">
-        <v>6</v>
+        <v>227</v>
       </c>
       <c r="D7" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A8">
         <v>5</v>
       </c>
-      <c r="B8" s="1">
-        <v>201007</v>
+      <c r="B8" s="1" t="s">
+        <v>164</v>
       </c>
       <c r="C8" t="s">
-        <v>6</v>
+        <v>228</v>
       </c>
       <c r="D8" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A9">
         <v>5</v>
       </c>
-      <c r="B9" s="1">
-        <v>201008</v>
+      <c r="B9" s="1" t="s">
+        <v>165</v>
       </c>
       <c r="C9" t="s">
-        <v>6</v>
+        <v>229</v>
       </c>
       <c r="D9" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A10">
         <v>5</v>
       </c>
-      <c r="B10" s="1">
-        <v>201009</v>
+      <c r="B10" s="1" t="s">
+        <v>166</v>
       </c>
       <c r="C10" t="s">
-        <v>6</v>
+        <v>230</v>
       </c>
       <c r="D10" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A11">
         <v>5</v>
       </c>
-      <c r="B11" s="1">
-        <v>201010</v>
+      <c r="B11" s="1" t="s">
+        <v>167</v>
       </c>
       <c r="C11" t="s">
-        <v>6</v>
+        <v>231</v>
       </c>
       <c r="D11" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A12">
         <v>5</v>
       </c>
-      <c r="B12" s="1">
-        <v>201011</v>
+      <c r="B12" s="1" t="s">
+        <v>168</v>
       </c>
       <c r="C12" t="s">
-        <v>6</v>
+        <v>232</v>
       </c>
       <c r="D12" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A13">
         <v>5</v>
       </c>
-      <c r="B13" s="1">
-        <v>201012</v>
+      <c r="B13" s="1" t="s">
+        <v>169</v>
       </c>
       <c r="C13" t="s">
-        <v>6</v>
+        <v>233</v>
       </c>
       <c r="D13" t="s">
-        <v>7</v>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A14">
+        <v>5</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="C14" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A15">
+        <v>5</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="C15" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A16">
+        <v>5</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="C16" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A17">
+        <v>5</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="C17" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A18">
+        <v>5</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="C18" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A19">
+        <v>5</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="C19" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A20">
+        <v>5</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="C20" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A21">
+        <v>5</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="C21" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A22">
+        <v>5</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="C22" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A23">
+        <v>5</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="C23" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A24">
+        <v>5</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="C24" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A25">
+        <v>5</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="C25" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A26">
+        <v>5</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="C26" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A27">
+        <v>5</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="C27" t="s">
+        <v>221</v>
       </c>
     </row>
   </sheetData>
@@ -2029,18 +2460,17 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D13"/>
+  <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.600000000000001" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
     <col min="1" max="1" width="18.7109375" customWidth="1"/>
     <col min="2" max="2" width="16.640625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="56.640625" customWidth="1"/>
-    <col min="4" max="4" width="71.35546875" customWidth="1"/>
+    <col min="3" max="4" width="71.35546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -2051,7 +2481,7 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>2</v>
+        <v>200</v>
       </c>
       <c r="D1" t="s">
         <v>3</v>
@@ -2061,168 +2491,154 @@
       <c r="A2">
         <v>6</v>
       </c>
-      <c r="B2" s="1">
-        <v>202001</v>
+      <c r="B2" s="1" t="s">
+        <v>184</v>
       </c>
       <c r="C2" t="s">
-        <v>4</v>
+        <v>201</v>
       </c>
       <c r="D2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A3">
         <v>6</v>
       </c>
-      <c r="B3" s="1">
-        <v>202002</v>
+      <c r="B3" s="1" t="s">
+        <v>185</v>
       </c>
       <c r="C3" t="s">
-        <v>4</v>
+        <v>195</v>
       </c>
       <c r="D3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A4">
         <v>6</v>
       </c>
-      <c r="B4" s="1">
-        <v>202003</v>
+      <c r="B4" s="1" t="s">
+        <v>186</v>
       </c>
       <c r="C4" t="s">
-        <v>4</v>
+        <v>202</v>
       </c>
       <c r="D4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A5">
         <v>6</v>
       </c>
-      <c r="B5" s="1">
-        <v>202004</v>
+      <c r="B5" s="1" t="s">
+        <v>187</v>
       </c>
       <c r="C5" t="s">
-        <v>4</v>
+        <v>203</v>
       </c>
       <c r="D5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A6">
         <v>6</v>
       </c>
-      <c r="B6" s="1">
-        <v>202005</v>
+      <c r="B6" s="1" t="s">
+        <v>188</v>
       </c>
       <c r="C6" t="s">
-        <v>4</v>
+        <v>196</v>
       </c>
       <c r="D6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A7">
         <v>6</v>
       </c>
-      <c r="B7" s="1">
-        <v>202006</v>
+      <c r="B7" s="1" t="s">
+        <v>189</v>
       </c>
       <c r="C7" t="s">
-        <v>4</v>
+        <v>204</v>
       </c>
       <c r="D7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A8">
         <v>6</v>
       </c>
-      <c r="B8" s="1">
-        <v>202007</v>
+      <c r="B8" s="1" t="s">
+        <v>190</v>
       </c>
       <c r="C8" t="s">
-        <v>4</v>
+        <v>205</v>
       </c>
       <c r="D8" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A9">
         <v>6</v>
       </c>
-      <c r="B9" s="1">
-        <v>202008</v>
+      <c r="B9" s="1" t="s">
+        <v>191</v>
       </c>
       <c r="C9" t="s">
-        <v>4</v>
+        <v>197</v>
       </c>
       <c r="D9" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A10">
         <v>6</v>
       </c>
-      <c r="B10" s="1">
-        <v>202009</v>
+      <c r="B10" s="1" t="s">
+        <v>192</v>
       </c>
       <c r="C10" t="s">
-        <v>4</v>
+        <v>206</v>
       </c>
       <c r="D10" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A11">
         <v>6</v>
       </c>
-      <c r="B11" s="1">
-        <v>202010</v>
+      <c r="B11" s="1" t="s">
+        <v>193</v>
       </c>
       <c r="C11" t="s">
-        <v>4</v>
+        <v>198</v>
       </c>
       <c r="D11" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A12">
         <v>6</v>
       </c>
-      <c r="B12" s="1">
-        <v>202011</v>
+      <c r="B12" s="1" t="s">
+        <v>194</v>
       </c>
       <c r="C12" t="s">
-        <v>4</v>
+        <v>199</v>
       </c>
       <c r="D12" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A13">
-        <v>6</v>
-      </c>
-      <c r="B13" s="1">
-        <v>202012</v>
-      </c>
-      <c r="C13" t="s">
-        <v>4</v>
-      </c>
-      <c r="D13" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>
